--- a/performance Wd and SE.xlsx
+++ b/performance Wd and SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ric/Documents/GitHub/Invasive_wrack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378012A1-D33A-0A43-BE51-EF9443215B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16A3EE-46FC-FD44-AF80-9E2A20404DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="1920" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{01223531-F8F9-AD4D-8D27-C2D1A573CF43}"/>
+    <workbookView xWindow="4460" yWindow="4600" windowWidth="27640" windowHeight="16940" xr2:uid="{01223531-F8F9-AD4D-8D27-C2D1A573CF43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="17">
   <si>
     <t>grazer_spp.</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>Total_mass</t>
+  </si>
+  <si>
+    <t>Total_mass_total</t>
+  </si>
+  <si>
+    <t>(mac-replacement/mac)*100</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930EF153-7F2F-1348-8E9D-A5EE8BB9EB44}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +450,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +475,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -495,8 +510,16 @@
         <f>STDEV(D2:D21)/SQRT(COUNT(D2:D21))</f>
         <v>1.9202316198011651E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>SUM(D2:D21)</f>
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="J2">
+        <f>((I2-I42)/I2)*100</f>
+        <v>-30.887290167865711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -517,7 +540,7 @@
         <v>0.21960000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -538,7 +561,7 @@
         <v>0.2414</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -559,7 +582,7 @@
         <v>0.2235</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -580,7 +603,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -601,7 +624,7 @@
         <v>0.24330000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -622,7 +645,7 @@
         <v>0.1865</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -643,7 +666,7 @@
         <v>0.2445</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -664,7 +687,7 @@
         <v>0.2331</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -685,7 +708,7 @@
         <v>0.21130000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -706,7 +729,7 @@
         <v>2.9999999999999992E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -727,7 +750,7 @@
         <v>9.0000000000000149E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -748,7 +771,7 @@
         <v>-2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -769,7 +792,7 @@
         <v>-1.3499999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -790,7 +813,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -811,7 +834,7 @@
         <v>-1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -832,7 +855,7 @@
         <v>9.0000000000000149E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -853,7 +876,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -874,7 +897,7 @@
         <v>-1.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -895,7 +918,7 @@
         <v>-8.4999999999999971E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -923,8 +946,16 @@
         <f>STDEV(D22:D41)/SQRT(COUNT(D22:D41))</f>
         <v>1.792688366378096E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f>SUM(D22:D41)</f>
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="J22">
+        <f>((I2-I22)/I2)*100</f>
+        <v>-34.724220623501182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -945,7 +976,7 @@
         <v>0.19969999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -966,7 +997,7 @@
         <v>0.1711</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -987,7 +1018,7 @@
         <v>0.20129999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1039,7 @@
         <v>0.22090000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>0.2112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1081,7 @@
         <v>0.1867</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1102,7 @@
         <v>0.21279999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1123,7 @@
         <v>0.19159999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1144,7 @@
         <v>0.19339999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1165,7 @@
         <v>-2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1186,7 @@
         <v>1.0700000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1207,7 @@
         <v>5.6000000000000008E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1228,7 @@
         <v>-6.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1249,7 @@
         <v>-1.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1270,7 @@
         <v>-1.7799999999999996E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1291,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1312,7 @@
         <v>-1.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1333,7 @@
         <v>-1.7399999999999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1354,7 @@
         <v>-1.5899999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1348,11 +1379,15 @@
         <v>2.7290000000000002E-2</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H3:H66" si="1">STDEV(D42:D61)/SQRT(COUNT(D42:D61))</f>
+        <f t="shared" ref="H42:H62" si="1">STDEV(D42:D61)/SQRT(COUNT(D42:D61))</f>
         <v>2.1718037616109231E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f>SUM(D42:D61)</f>
+        <v>0.54580000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>0.18060000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1429,7 @@
         <v>0.21910000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>0.17920000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1471,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1492,7 @@
         <v>0.21679999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2189,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4310DCA-A1E8-6F4E-851A-C3C06A3C1D96}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,7 +2235,7 @@
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +2254,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2282,16 @@
         <f>STDEV(D2:D21)/SQRT(COUNT(D2:D21))</f>
         <v>0.17375846334556064</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>SUM(D2:D21)</f>
+        <v>55.152599999999993</v>
+      </c>
+      <c r="H2">
+        <f>((G2-G42)/G2)*100</f>
+        <v>24.77580386056141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2305,7 @@
         <v>2.6438999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2319,7 @@
         <v>2.5689000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2333,7 @@
         <v>2.0440999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2347,7 @@
         <v>1.9537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2361,7 @@
         <v>2.2132000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2375,7 @@
         <v>2.7212000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2389,7 @@
         <v>3.9794999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2403,7 @@
         <v>2.9605000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2417,7 @@
         <v>1.6632</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2431,7 @@
         <v>2.2368000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2445,7 @@
         <v>3.1644000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2410,7 +2459,7 @@
         <v>3.5594999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2424,7 +2473,7 @@
         <v>2.8393999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2487,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2501,7 @@
         <v>3.3706999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2466,7 +2515,7 @@
         <v>2.5392999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2529,7 @@
         <v>4.7061000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2543,7 @@
         <v>3.4502000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>2.0404</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2526,11 +2575,19 @@
         <v>2.4638900000000001</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F3:F66" si="0">STDEV(D22:D41)/SQRT(COUNT(D22:D41))</f>
+        <f t="shared" ref="F22:F62" si="0">STDEV(D22:D41)/SQRT(COUNT(D22:D41))</f>
         <v>0.13557571857977005</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f>SUM(D22:D41)</f>
+        <v>49.277799999999999</v>
+      </c>
+      <c r="H22">
+        <f>((G2-G22)/G2)*100</f>
+        <v>10.651900363718109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2544,7 +2601,7 @@
         <v>1.8591</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2558,7 +2615,7 @@
         <v>3.8565</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2572,7 +2629,7 @@
         <v>2.0516000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2643,7 @@
         <v>2.1823000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +2657,7 @@
         <v>2.6360999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2614,7 +2671,7 @@
         <v>2.1438999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2685,7 @@
         <v>2.1543000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2642,7 +2699,7 @@
         <v>2.6343999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2713,7 @@
         <v>3.5167000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2727,7 @@
         <v>3.1387</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2741,7 @@
         <v>2.9693999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2698,7 +2755,7 @@
         <v>1.6889000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2769,7 @@
         <v>2.4979</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2726,7 +2783,7 @@
         <v>2.9866000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2797,7 @@
         <v>2.2645</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2754,7 +2811,7 @@
         <v>1.9563999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +2825,7 @@
         <v>2.9474</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2839,7 @@
         <v>1.702</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2853,7 @@
         <v>1.9521999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2810,15 +2867,19 @@
         <v>1.4286000000000001</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E3:E66" si="1">AVERAGE(D42:D61)</f>
+        <f t="shared" ref="E42:E62" si="1">AVERAGE(D42:D61)</f>
         <v>2.0744050000000001</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>0.11335264013246452</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f>SUM(D42:D61)</f>
+        <v>41.488100000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2893,7 @@
         <v>1.8824000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2907,7 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2921,7 @@
         <v>1.6297999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +2935,7 @@
         <v>1.4073</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2949,7 @@
         <v>2.0720000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +2963,7 @@
         <v>1.6597999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +2977,7 @@
         <v>2.4668999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2991,7 @@
         <v>1.6107</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +3005,7 @@
         <v>2.1825000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +3019,7 @@
         <v>1.7312000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2972,7 +3033,7 @@
         <v>2.1576</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +3047,7 @@
         <v>1.9519</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3000,7 +3061,7 @@
         <v>1.7337</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3075,7 @@
         <v>2.5985</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3028,7 +3089,7 @@
         <v>2.5674999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3103,7 @@
         <v>2.9243000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3117,7 @@
         <v>2.9363000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3070,7 +3131,7 @@
         <v>2.9706999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3145,7 @@
         <v>1.6714</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -3105,8 +3166,12 @@
         <f t="shared" si="0"/>
         <v>8.4629586799429224E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f>SUM(D62:D81)</f>
+        <v>31.454699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3120,7 +3185,7 @@
         <v>1.655</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3</v>
       </c>
